--- a/biology/Zoologie/Toussaint_von_Charpentier/Toussaint_von_Charpentier.xlsx
+++ b/biology/Zoologie/Toussaint_von_Charpentier/Toussaint_von_Charpentier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Toussaint von Charpentier est un  géologue et  entomologiste  saxon, né le 22 novembre 1779 à Freiberg et mort le 4 mars 1847 à Brieg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du géologue Johann Friedrich Wilhelm Toussaint von Charpentier (1738-1805) et frère de Johann von Charpentier (dit aussi Jean de Charpentier) (1786-1855), également géologue. Il étudie d’abord auprès de son père à l’Académie minière de Freiberg puis à l'université de Leipzig.
 En 1802, il s’installe en Prusse où il devient inspecteur des mines à Breslau. En 1811, il prend la direction de l'inspection des mines à Breslau. En 1828, il est nommé à Dortmund puis inspecteur chef en 1830.
@@ -544,9 +558,11 @@
           <t>Mariage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'est marié le 2 juillet 1806 avec Charlotte Frédérike Amalie von Pfeil (de)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'est marié le 2 juillet 1806 avec Charlotte Frédérike Amalie von Pfeil (de)
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kurze Beschreibung sämtlicher beim Amalgamierwerk Halsbrücke bei Freiberg vorkommenden Arbeiten, 1802
 Übersetzung von Rinmans Allgemeindem Bergwerkslexikon, 1808
